--- a/pred_ohlcv/54_21/2020-01-12 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 XSR ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>-4773900.716585925</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-5100730.284585925</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-5100730.284585925</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5284929.565185925</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4314443.734887109</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-5063213.294687109</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4833677.00078711</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4833677.00078711</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5593787.860636786</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5329829.072336785</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5032775.368636785</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5508589.747536785</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5508589.747536785</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5155953.528536785</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-5272563.829236785</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>20960736.72133835</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>20134446.82433656</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>19535893.17193656</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>19535893.17193656</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>20356801.63923656</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>20356801.63923656</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>20871933.18353656</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>20133813.46123656</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>19760407.03803656</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>20702793.94768514</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>23305717.79796263</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>28024404.14363375</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>30198089.88554392</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>27808895.90384392</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>25340249.24104392</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>25340249.24104392</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>25393386.18504392</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>25041523.51574392</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>23426446.44973287</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>25279017.13363287</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>24331262.20674128</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>24736468.26754128</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>24138559.23674128</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>25683999.47944128</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>25658533.62154128</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>24371313.05354128</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>24007099.72164128</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>23877283.94901223</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>23950246.31621223</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>11245041.34588822</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>11193555.99058822</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>10949234.72228822</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>26625152.01322667</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>23616110.08012667</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>23023828.31262667</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>22658756.33722667</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>22703380.88892667</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>23164610.86064629</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>22546792.55004629</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>22708982.10414629</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>22281108.50764629</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>22102576.69024629</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>22220913.12434629</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>21755636.96014629</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>19389504.25914629</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>17922540.97684629</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>24415541.92618765</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>21930963.21688765</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>21147344.4084154</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>21441087.4711154</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>21556893.8963154</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>21353011.8942154</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>21513285.6413154</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>21435968.3483154</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>21859181.1373154</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 XSR ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-4583777.069885924</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4788416.567185924</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4434467.473185925</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4404467.473185925</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4773900.716585925</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4774271.037785925</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4320460.906887109</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4608848.476587109</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-5452820.44018711</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-5452820.44018711</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-5443346.081985925</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-5593787.860636786</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5329829.072336785</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-5032775.368636785</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-5508589.747536785</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-5508589.747536785</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-5155953.528536785</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-5272563.829236785</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>20960736.72133835</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>20134446.82433656</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>19535893.17193656</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>19535893.17193656</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>20356801.63923656</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>20356801.63923656</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>20871933.18353656</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>20133813.46123656</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>19760407.03803656</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>20702793.94768514</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>23305717.79796263</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>28024404.14363375</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>30198089.88554392</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>24305129.3539877</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>23081104.9289877</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>25025901.26592646</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>24331262.20674128</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>24736468.26754128</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>24138559.23674128</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>25683999.47944128</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>25658533.62154128</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>24480167.02854128</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>24371313.05354128</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>24007099.72164128</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>23877283.94901223</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>11245041.34588822</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>11193555.99058822</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>10949234.72228822</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>26625152.01322667</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>26625152.01322667</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>23616110.08012667</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>23023828.31262667</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>22658756.33722667</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>22703380.88892667</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>22988798.75724629</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>23164610.86064629</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>22546792.55004629</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>22708982.10414629</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>22281108.50764629</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>22102576.69024629</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>22220913.12434629</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>21755636.96014629</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>19389504.25914629</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>19029848.54764629</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>19029848.54764629</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>19095360.85514629</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>18816460.77454629</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>18699256.04734629</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>18756828.12304629</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>18610470.75084629</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>17922540.97684629</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>17796109.87404628</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>17556797.41684629</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>17488991.82104629</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>17081602.42634628</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>25361747.68464836</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>26049478.03544836</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>25086844.83308765</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>24415541.92618765</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>24567192.32118765</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>24229848.41658765</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>21474201.04658765</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>21930963.21688765</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>21394001.02578765</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>21751496.87638765</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>21741584.76558765</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>21418603.51152282</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>21418603.51152282</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>21927661.59193829</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>21929111.6479154</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>21602584.4966154</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>21368302.8520154</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>21367983.8247154</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>21369195.7995154</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>21147344.4084154</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>21228852.2941154</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>21556893.8963154</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
